--- a/Excel/excel/xls/Y语言表.xlsx
+++ b/Excel/excel/xls/Y语言表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\BRANCH\TSC\Excel\excel\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14175" yWindow="6135" windowWidth="16200" windowHeight="7710"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +60,38 @@
   </si>
   <si>
     <t>描述5</t>
+  </si>
+  <si>
+    <t>让别人不知道你的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引周围的能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向传送门，橙色进入蓝色出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需体力的加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌，但是也不能杀人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20积分，10点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200积分，10体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60积分，10体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -110,12 +147,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -157,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,6 +507,95 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/Y语言表.xlsx
+++ b/Excel/excel/xls/Y语言表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,22 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2</t>
-  </si>
-  <si>
-    <t>技能3</t>
-  </si>
-  <si>
-    <t>技能4</t>
-  </si>
-  <si>
-    <t>技能5</t>
-  </si>
-  <si>
     <t>描述1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +75,45 @@
   </si>
   <si>
     <t>60积分，10体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
+  </si>
+  <si>
+    <t>普通能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +131,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,9 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,7 +476,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,73 +505,88 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -547,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -555,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -563,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -571,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -579,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -587,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -595,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -640,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -648,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -656,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -664,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/Y语言表.xlsx
+++ b/Excel/excel/xls/Y语言表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\BRANCH\TSC\Excel\excel\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="6135" windowWidth="16200" windowHeight="7710"/>
+    <workbookView xWindow="14175" yWindow="6120" windowWidth="16200" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文本描述" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,22 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>描述5</t>
-  </si>
-  <si>
     <t>让别人不知道你的角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +93,251 @@
   </si>
   <si>
     <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最高积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最高击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装2</t>
+  </si>
+  <si>
+    <t>套装3</t>
+  </si>
+  <si>
+    <t>套装4</t>
+  </si>
+  <si>
+    <t>套装5</t>
+  </si>
+  <si>
+    <t>套装6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎2</t>
+  </si>
+  <si>
+    <t>老虎3</t>
+  </si>
+  <si>
+    <t>老虎4</t>
+  </si>
+  <si>
+    <t>老虎5</t>
+  </si>
+  <si>
+    <t>老虎6</t>
+  </si>
+  <si>
+    <t>老虎7</t>
+  </si>
+  <si>
+    <t>老虎8</t>
+  </si>
+  <si>
+    <t>老虎9</t>
+  </si>
+  <si>
+    <t>老虎10</t>
+  </si>
+  <si>
+    <t>老虎11</t>
+  </si>
+  <si>
+    <t>老虎12</t>
+  </si>
+  <si>
+    <t>老虎13</t>
+  </si>
+  <si>
+    <t>老虎14</t>
+  </si>
+  <si>
+    <t>棒子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒子2</t>
+  </si>
+  <si>
+    <t>棒子3</t>
+  </si>
+  <si>
+    <t>棒子4</t>
+  </si>
+  <si>
+    <t>棒子5</t>
+  </si>
+  <si>
+    <t>棒子6</t>
+  </si>
+  <si>
+    <t>棒子7</t>
+  </si>
+  <si>
+    <t>棒子8</t>
+  </si>
+  <si>
+    <t>棒子9</t>
+  </si>
+  <si>
+    <t>棒子10</t>
+  </si>
+  <si>
+    <t>棒子11</t>
+  </si>
+  <si>
+    <t>棒子12</t>
+  </si>
+  <si>
+    <t>棒子13</t>
+  </si>
+  <si>
+    <t>棒子14</t>
+  </si>
+  <si>
+    <t>棒子15</t>
+  </si>
+  <si>
+    <t>鸡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡2</t>
+  </si>
+  <si>
+    <t>鸡3</t>
+  </si>
+  <si>
+    <t>鸡4</t>
+  </si>
+  <si>
+    <t>鸡5</t>
+  </si>
+  <si>
+    <t>鸡6</t>
+  </si>
+  <si>
+    <t>鸡7</t>
+  </si>
+  <si>
+    <t>鸡8</t>
+  </si>
+  <si>
+    <t>鸡9</t>
+  </si>
+  <si>
+    <t>鸡10</t>
+  </si>
+  <si>
+    <t>鸡11</t>
+  </si>
+  <si>
+    <t>鸡12</t>
+  </si>
+  <si>
+    <t>鸡13</t>
+  </si>
+  <si>
+    <t>鸡14</t>
+  </si>
+  <si>
+    <t>鸡15</t>
+  </si>
+  <si>
+    <t>鸡16</t>
+  </si>
+  <si>
+    <t>鸡17</t>
+  </si>
+  <si>
+    <t>鸡18</t>
+  </si>
+  <si>
+    <t>鸡19</t>
+  </si>
+  <si>
+    <t>鸡20</t>
+  </si>
+  <si>
+    <t>鸡21</t>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费{0}游戏币购买{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,16 +697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
@@ -506,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -514,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -522,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -530,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -538,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -546,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -554,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -562,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -570,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -578,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -634,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -642,7 +866,463 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>114</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>119</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>123</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>124</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>125</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>126</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>132</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>135</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>140</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>143</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>148</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>149</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>150</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>152</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>153</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>154</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>155</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -654,13 +1334,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -679,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -687,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -695,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -703,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -711,8 +1394,108 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/excel/xls/Y语言表.xlsx
+++ b/Excel/excel/xls/Y语言表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,34 @@
   </si>
   <si>
     <t>是否花费{0}游戏币购买{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场积分:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础金币：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终金币：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再来一局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,8 +1522,68 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
